--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_4_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_4_sawtooth_01_.xlsx
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.90000000000014</v>
+        <v>22.86000000000013</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006924832103127887</v>
+        <v>0.0008672570368000176</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002841782940801153</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.002986721595507058</v>
-      </c>
+        <v>0.003189769579054117</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.128498497178906</v>
+        <v>4.285738813768346</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.5883622388607437, 6.668634755497069]</t>
+          <t>[1.8616150154943636, 6.709862612042329]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.001503796990730111</v>
+        <v>0.0005630062990584772</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001503796990730111</v>
+        <v>0.0005630062990584772</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.383684452031541</v>
+        <v>-1.622684493746079</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.1510003754308498, -0.6163685286322318]</t>
+          <t>[-2.402579366709311, -0.8427896207828471]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004368292727559009</v>
+        <v>5.162665002478306e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0008736585455118018</v>
+        <v>0.0001032533000495661</v>
       </c>
       <c r="S2" t="n">
-        <v>13.60040417210994</v>
+        <v>13.51368051370517</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.104126971220996, 15.096681372998884]</t>
+          <t>[11.936923485523801, 15.090437541886542]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.043043043043074</v>
+        <v>5.903783783783815</v>
       </c>
       <c r="X2" t="n">
-        <v>2.24644644644646</v>
+        <v>3.066306306306321</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.839639639639689</v>
+        <v>8.741261261261311</v>
       </c>
     </row>
     <row r="3">
@@ -643,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -654,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.60000000000025</v>
+        <v>23.23000000000019</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.117500186165188e-06</v>
+        <v>2.135243587497726e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>3.254825679280512e-05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01918126046505464</v>
-      </c>
+        <v>6.514664309817849e-06</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.420903755939223</v>
+        <v>5.743253057176473</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.676104044147639, 8.165703467730808]</t>
+          <t>[3.1642328040892718, 8.322273310263673]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0001187990325322019</v>
+        <v>1.487533883381964e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002375980650644038</v>
+        <v>2.975067766763928e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.698131700797731</v>
+        <v>-0.4402632347373086</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.20755266780472947, 1.1887107337907326]</t>
+          <t>[-0.9308422677303092, 0.0503157982556921]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.005378271961181236</v>
+        <v>0.0784704680022128</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005378271961181236</v>
+        <v>0.0784704680022128</v>
       </c>
       <c r="S3" t="n">
-        <v>13.77463752410993</v>
+        <v>13.12437842712644</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.36282391375444, 15.186451134465411]</t>
+          <t>[11.706533048286435, 14.542223805966447]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -712,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>20.977777777778</v>
+        <v>1.627727727727745</v>
       </c>
       <c r="X3" t="n">
-        <v>19.13513513513534</v>
+        <v>-0.1860260260260236</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.82042042042067</v>
+        <v>3.441481481481513</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_4_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_4_sawtooth_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.86000000000013</v>
+        <v>23.14000000000018</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0008672570368000176</v>
+        <v>3.163355576629723e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003189769579054117</v>
+        <v>0.0001535268592587685</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.285738813768346</v>
+        <v>4.945047437427129</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.8616150154943636, 6.709862612042329]</t>
+          <t>[2.015158577520067, 7.874936297334191]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0005630062990584772</v>
+        <v>0.0009860641685615068</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0005630062990584772</v>
+        <v>0.0009860641685615068</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.622684493746079</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.402579366709311, -0.8427896207828471]</t>
+          <t>[-1.58494764505431, -0.4025263860455386]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>5.162665002478306e-05</v>
+        <v>0.001034064299698434</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001032533000495661</v>
+        <v>0.002068128599396868</v>
       </c>
       <c r="S2" t="n">
-        <v>13.51368051370517</v>
+        <v>13.85124742608155</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.936923485523801, 15.090437541886542]</t>
+          <t>[12.349707133028033, 15.352787719135073]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.903783783783815</v>
+        <v>3.659779779779807</v>
       </c>
       <c r="X2" t="n">
-        <v>3.066306306306321</v>
+        <v>1.482442442442452</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.741261261261311</v>
+        <v>5.837117117117162</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.23000000000019</v>
+        <v>23.2800000000002</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.135243587497726e-07</v>
+        <v>1.672440892441784e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>6.514664309817849e-06</v>
+        <v>5.081870132786745e-06</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.743253057176473</v>
+        <v>5.510040760579137</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.1642328040892718, 8.322273310263673]</t>
+          <t>[3.0027950411187305, 8.017286480039544]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.487533883381964e-05</v>
+        <v>1.913956477572754e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>2.975067766763928e-05</v>
+        <v>3.827912955145507e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.4402632347373086</v>
+        <v>-0.3899474364816164</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.9308422677303092, 0.0503157982556921]</t>
+          <t>[-0.8679475199106941, 0.08805264694746118]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0784704680022128</v>
+        <v>0.1095998308221053</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0784704680022128</v>
+        <v>0.1095998308221053</v>
       </c>
       <c r="S3" t="n">
-        <v>13.12437842712644</v>
+        <v>12.39208132305372</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.706533048286435, 14.542223805966447]</t>
+          <t>[11.04551652484823, 13.738646121259203]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.627727727727745</v>
+        <v>1.444804804804821</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.1860260260260236</v>
+        <v>-0.3262462462462448</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.441481481481513</v>
+        <v>3.215855855855888</v>
       </c>
     </row>
   </sheetData>
